--- a/SetGameScoring.xlsx
+++ b/SetGameScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabs/Desktop/IOS apps/Set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE056B2-623F-BD4A-B355-B3C3DB6332F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD744CD-7508-144E-A2E4-6484658AC3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{EA98BFB0-9966-0147-9503-0787D473CEA8}"/>
   </bookViews>
@@ -234,6 +234,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="248" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -708,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -825,6 +828,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="248" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584C6BE5-ABAD-C142-9356-B8AF1D075F36}">
   <dimension ref="B4:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1156,7 @@
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
@@ -1731,7 +1735,7 @@
       <c r="E33" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="96">
         <f>-$F$22/$F$23*F32</f>
         <v>-166.66666666666666</v>
       </c>
